--- a/Test Execution/Bharath/Test Case- Radiology_Reviewed.xlsx
+++ b/Test Execution/Bharath/Test Case- Radiology_Reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Bharath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0505DFE2-DAC2-413E-85C8-6A758FFAA344}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5ABE1F-8FFC-4F28-8E73-1C0508000C08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3538,16 +3538,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3927,14 +3927,14 @@
       <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="R1" s="35" t="s">
+      <c r="P1" s="36"/>
+      <c r="R1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="35"/>
+      <c r="S1" s="37"/>
     </row>
     <row r="2" spans="1:19" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -12542,7 +12542,7 @@
       <c r="C603" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D603" s="36" t="s">
+      <c r="D603" s="35" t="s">
         <v>401</v>
       </c>
       <c r="E603" s="22">
@@ -19124,7 +19124,7 @@
       <c r="C1144" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1144" s="37" t="s">
+      <c r="D1144" s="34" t="s">
         <v>772</v>
       </c>
       <c r="E1144" s="7">
@@ -19143,7 +19143,7 @@
       <c r="J1144" s="14"/>
     </row>
     <row r="1145" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1145" s="37"/>
+      <c r="D1145" s="34"/>
       <c r="E1145" s="7">
         <v>2</v>
       </c>
@@ -19159,7 +19159,7 @@
       <c r="J1145" s="16"/>
     </row>
     <row r="1146" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1146" s="37"/>
+      <c r="D1146" s="34"/>
       <c r="E1146" s="7">
         <v>3</v>
       </c>
@@ -19172,7 +19172,7 @@
       <c r="J1146" s="7"/>
     </row>
     <row r="1147" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1147" s="37"/>
+      <c r="D1147" s="34"/>
       <c r="E1147" s="7">
         <v>4</v>
       </c>
@@ -19185,7 +19185,7 @@
       <c r="J1147" s="7"/>
     </row>
     <row r="1148" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1148" s="37"/>
+      <c r="D1148" s="34"/>
       <c r="E1148" s="7">
         <v>5</v>
       </c>
@@ -19198,7 +19198,7 @@
       <c r="J1148" s="7"/>
     </row>
     <row r="1149" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1149" s="37"/>
+      <c r="D1149" s="34"/>
       <c r="E1149" s="7">
         <v>6</v>
       </c>
@@ -19213,7 +19213,7 @@
       </c>
     </row>
     <row r="1150" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="D1150" s="37"/>
+      <c r="D1150" s="34"/>
       <c r="E1150" s="7">
         <v>7</v>
       </c>
@@ -19227,7 +19227,7 @@
       <c r="J1150" s="7"/>
     </row>
     <row r="1151" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1151" s="37"/>
+      <c r="D1151" s="34"/>
       <c r="E1151" s="7">
         <v>8</v>
       </c>
@@ -19241,7 +19241,7 @@
       <c r="J1151" s="7"/>
     </row>
     <row r="1152" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="D1152" s="37"/>
+      <c r="D1152" s="34"/>
       <c r="E1152" s="7">
         <v>9</v>
       </c>
@@ -19256,7 +19256,7 @@
       </c>
     </row>
     <row r="1153" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1153" s="37"/>
+      <c r="D1153" s="34"/>
       <c r="E1153" s="7">
         <v>10</v>
       </c>
@@ -22371,32 +22371,78 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="122">
-    <mergeCell ref="D1398:D1406"/>
-    <mergeCell ref="D1121:D1131"/>
-    <mergeCell ref="D1144:D1153"/>
-    <mergeCell ref="D1197:D1206"/>
-    <mergeCell ref="D1222:D1231"/>
-    <mergeCell ref="D1209:D1219"/>
-    <mergeCell ref="D1234:D1242"/>
-    <mergeCell ref="D1035:D1049"/>
-    <mergeCell ref="D1391:D1396"/>
-    <mergeCell ref="D653:D659"/>
-    <mergeCell ref="D680:D687"/>
-    <mergeCell ref="D986:D993"/>
-    <mergeCell ref="D969:D975"/>
-    <mergeCell ref="D996:D1008"/>
-    <mergeCell ref="D950:D956"/>
-    <mergeCell ref="D942:D947"/>
-    <mergeCell ref="D930:D938"/>
-    <mergeCell ref="D958:D964"/>
-    <mergeCell ref="D920:D927"/>
-    <mergeCell ref="D719:D726"/>
-    <mergeCell ref="D699:D706"/>
-    <mergeCell ref="D709:D716"/>
-    <mergeCell ref="D662:D676"/>
-    <mergeCell ref="D690:D696"/>
-    <mergeCell ref="D902:D908"/>
-    <mergeCell ref="D978:D983"/>
+    <mergeCell ref="D1011:D1020"/>
+    <mergeCell ref="D1375:D1381"/>
+    <mergeCell ref="D1383:D1389"/>
+    <mergeCell ref="D1325:D1338"/>
+    <mergeCell ref="D1341:D1347"/>
+    <mergeCell ref="D1349:D1352"/>
+    <mergeCell ref="D1354:D1357"/>
+    <mergeCell ref="D1359:D1363"/>
+    <mergeCell ref="D1365:D1373"/>
+    <mergeCell ref="D1307:D1322"/>
+    <mergeCell ref="D1245:D1252"/>
+    <mergeCell ref="D1255:D1261"/>
+    <mergeCell ref="D1079:D1085"/>
+    <mergeCell ref="D1088:D1096"/>
+    <mergeCell ref="D1099:D1107"/>
+    <mergeCell ref="D1110:D1118"/>
+    <mergeCell ref="D1023:D1032"/>
+    <mergeCell ref="D1070:D1076"/>
+    <mergeCell ref="D1061:D1067"/>
+    <mergeCell ref="D1052:D1058"/>
+    <mergeCell ref="D1182:D1194"/>
+    <mergeCell ref="D1134:D1141"/>
+    <mergeCell ref="D1157:D1167"/>
+    <mergeCell ref="D1169:D1180"/>
+    <mergeCell ref="D321:D333"/>
+    <mergeCell ref="D337:D352"/>
+    <mergeCell ref="D1264:D1275"/>
+    <mergeCell ref="D1278:D1284"/>
+    <mergeCell ref="D1287:D1294"/>
+    <mergeCell ref="D1297:D1304"/>
+    <mergeCell ref="D730:D736"/>
+    <mergeCell ref="D739:D744"/>
+    <mergeCell ref="D892:D899"/>
+    <mergeCell ref="D806:D813"/>
+    <mergeCell ref="D816:D823"/>
+    <mergeCell ref="D826:D832"/>
+    <mergeCell ref="D747:D757"/>
+    <mergeCell ref="D760:D772"/>
+    <mergeCell ref="D775:D781"/>
+    <mergeCell ref="D786:D793"/>
+    <mergeCell ref="D796:D802"/>
+    <mergeCell ref="D835:D842"/>
+    <mergeCell ref="D854:D859"/>
+    <mergeCell ref="D862:D869"/>
+    <mergeCell ref="D845:D851"/>
+    <mergeCell ref="D873:D880"/>
+    <mergeCell ref="D883:D889"/>
+    <mergeCell ref="D911:D917"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="D21:D30"/>
+    <mergeCell ref="D490:D500"/>
+    <mergeCell ref="D503:D512"/>
+    <mergeCell ref="D643:D650"/>
+    <mergeCell ref="D514:D524"/>
+    <mergeCell ref="D527:D534"/>
+    <mergeCell ref="D537:D544"/>
+    <mergeCell ref="D632:D639"/>
+    <mergeCell ref="D32:D44"/>
+    <mergeCell ref="D47:D62"/>
+    <mergeCell ref="D65:D77"/>
+    <mergeCell ref="D80:D92"/>
+    <mergeCell ref="D95:D102"/>
+    <mergeCell ref="D105:D114"/>
+    <mergeCell ref="D117:D126"/>
+    <mergeCell ref="D478:D487"/>
+    <mergeCell ref="D163:D194"/>
+    <mergeCell ref="D197:D205"/>
+    <mergeCell ref="D209:D218"/>
+    <mergeCell ref="D222:D231"/>
     <mergeCell ref="D129:D136"/>
     <mergeCell ref="D139:D148"/>
     <mergeCell ref="D547:D552"/>
@@ -22421,78 +22467,32 @@
     <mergeCell ref="D355:D375"/>
     <mergeCell ref="D378:D388"/>
     <mergeCell ref="D391:D409"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="D21:D30"/>
-    <mergeCell ref="D490:D500"/>
-    <mergeCell ref="D503:D512"/>
-    <mergeCell ref="D643:D650"/>
-    <mergeCell ref="D514:D524"/>
-    <mergeCell ref="D527:D534"/>
-    <mergeCell ref="D537:D544"/>
-    <mergeCell ref="D632:D639"/>
-    <mergeCell ref="D32:D44"/>
-    <mergeCell ref="D47:D62"/>
-    <mergeCell ref="D65:D77"/>
-    <mergeCell ref="D80:D92"/>
-    <mergeCell ref="D95:D102"/>
-    <mergeCell ref="D105:D114"/>
-    <mergeCell ref="D117:D126"/>
-    <mergeCell ref="D478:D487"/>
-    <mergeCell ref="D163:D194"/>
-    <mergeCell ref="D197:D205"/>
-    <mergeCell ref="D209:D218"/>
-    <mergeCell ref="D222:D231"/>
-    <mergeCell ref="D321:D333"/>
-    <mergeCell ref="D337:D352"/>
-    <mergeCell ref="D1264:D1275"/>
-    <mergeCell ref="D1278:D1284"/>
-    <mergeCell ref="D1287:D1294"/>
-    <mergeCell ref="D1297:D1304"/>
-    <mergeCell ref="D730:D736"/>
-    <mergeCell ref="D739:D744"/>
-    <mergeCell ref="D892:D899"/>
-    <mergeCell ref="D806:D813"/>
-    <mergeCell ref="D816:D823"/>
-    <mergeCell ref="D826:D832"/>
-    <mergeCell ref="D747:D757"/>
-    <mergeCell ref="D760:D772"/>
-    <mergeCell ref="D775:D781"/>
-    <mergeCell ref="D786:D793"/>
-    <mergeCell ref="D796:D802"/>
-    <mergeCell ref="D835:D842"/>
-    <mergeCell ref="D854:D859"/>
-    <mergeCell ref="D862:D869"/>
-    <mergeCell ref="D845:D851"/>
-    <mergeCell ref="D873:D880"/>
-    <mergeCell ref="D883:D889"/>
-    <mergeCell ref="D911:D917"/>
-    <mergeCell ref="D1011:D1020"/>
-    <mergeCell ref="D1375:D1381"/>
-    <mergeCell ref="D1383:D1389"/>
-    <mergeCell ref="D1325:D1338"/>
-    <mergeCell ref="D1341:D1347"/>
-    <mergeCell ref="D1349:D1352"/>
-    <mergeCell ref="D1354:D1357"/>
-    <mergeCell ref="D1359:D1363"/>
-    <mergeCell ref="D1365:D1373"/>
-    <mergeCell ref="D1307:D1322"/>
-    <mergeCell ref="D1245:D1252"/>
-    <mergeCell ref="D1255:D1261"/>
-    <mergeCell ref="D1079:D1085"/>
-    <mergeCell ref="D1088:D1096"/>
-    <mergeCell ref="D1099:D1107"/>
-    <mergeCell ref="D1110:D1118"/>
-    <mergeCell ref="D1023:D1032"/>
-    <mergeCell ref="D1070:D1076"/>
-    <mergeCell ref="D1061:D1067"/>
-    <mergeCell ref="D1052:D1058"/>
-    <mergeCell ref="D1182:D1194"/>
-    <mergeCell ref="D1134:D1141"/>
-    <mergeCell ref="D1157:D1167"/>
-    <mergeCell ref="D1169:D1180"/>
+    <mergeCell ref="D653:D659"/>
+    <mergeCell ref="D680:D687"/>
+    <mergeCell ref="D986:D993"/>
+    <mergeCell ref="D969:D975"/>
+    <mergeCell ref="D996:D1008"/>
+    <mergeCell ref="D950:D956"/>
+    <mergeCell ref="D942:D947"/>
+    <mergeCell ref="D930:D938"/>
+    <mergeCell ref="D958:D964"/>
+    <mergeCell ref="D920:D927"/>
+    <mergeCell ref="D719:D726"/>
+    <mergeCell ref="D699:D706"/>
+    <mergeCell ref="D709:D716"/>
+    <mergeCell ref="D662:D676"/>
+    <mergeCell ref="D690:D696"/>
+    <mergeCell ref="D902:D908"/>
+    <mergeCell ref="D978:D983"/>
+    <mergeCell ref="D1398:D1406"/>
+    <mergeCell ref="D1121:D1131"/>
+    <mergeCell ref="D1144:D1153"/>
+    <mergeCell ref="D1197:D1206"/>
+    <mergeCell ref="D1222:D1231"/>
+    <mergeCell ref="D1209:D1219"/>
+    <mergeCell ref="D1234:D1242"/>
+    <mergeCell ref="D1035:D1049"/>
+    <mergeCell ref="D1391:D1396"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B1365 B1359 B1354 B1349 B1341 B1325 B1307 B1297 B1287 B1278 B1264 B1255 B1245 B1234 B1222 B1209 B1197 B1182 B1169 B1157 B1144 B1134 B1121 B1110 B1099 B1088 B1079 B1070 B1061 B1052 B1035 B1023 B1011 B996 B986 B958 B978 B969 B950 B942 B930 B920 B911 B902 B892 B883 B873 B862 B854 B844:B845 B835 B826 B816 B806 B796 B786 B775 B760 B747 B739 B730 B632 B709 B719 B712 B699 B690 B680 B662 B653 B643 B622 B11:B612 B1375 B1383 B1391 B1398" xr:uid="{00000000-0002-0000-0000-000000000000}">
